--- a/13/1/1/Operaciones no financieras 1990 a 2021 - Anual.xlsx
+++ b/13/1/1/Operaciones no financieras 1990 a 2021 - Anual.xlsx
@@ -2841,10 +2841,10 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>44261064</v>
+        <v>44263751</v>
       </c>
       <c r="C32">
-        <v>35696624</v>
+        <v>35697172</v>
       </c>
       <c r="D32">
         <v>1019268</v>
@@ -2853,61 +2853,61 @@
         <v>3104866</v>
       </c>
       <c r="F32">
-        <v>355758</v>
+        <v>357809</v>
       </c>
       <c r="G32">
-        <v>891180</v>
+        <v>891178</v>
       </c>
       <c r="H32">
-        <v>838979</v>
+        <v>838970</v>
       </c>
       <c r="I32">
-        <v>2354389</v>
+        <v>2354488</v>
       </c>
       <c r="J32">
-        <v>51516013</v>
+        <v>51513332</v>
       </c>
       <c r="K32">
-        <v>15082030</v>
+        <v>15081661</v>
       </c>
       <c r="L32">
-        <v>6180616</v>
+        <v>6179012</v>
       </c>
       <c r="M32">
-        <v>1938528</v>
+        <v>1938521</v>
       </c>
       <c r="N32">
-        <v>19243160</v>
+        <v>19242319</v>
       </c>
       <c r="O32">
-        <v>8900351</v>
+        <v>8900542</v>
       </c>
       <c r="P32">
-        <v>171328</v>
+        <v>171277</v>
       </c>
       <c r="Q32">
-        <v>-7254948</v>
+        <v>-7249582</v>
       </c>
       <c r="R32">
-        <v>7025047</v>
+        <v>7025832</v>
       </c>
       <c r="S32">
         <v>27859</v>
       </c>
       <c r="T32">
-        <v>4041582</v>
+        <v>4041888</v>
       </c>
       <c r="U32">
-        <v>3011324</v>
+        <v>3011804</v>
       </c>
       <c r="V32">
-        <v>44288924</v>
+        <v>44291610</v>
       </c>
       <c r="W32">
-        <v>58568919</v>
+        <v>58567024</v>
       </c>
       <c r="X32">
-        <v>-14279995</v>
+        <v>-14275414</v>
       </c>
     </row>
   </sheetData>
